--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -711,9 +711,6 @@
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
-      <c r="U2">
-        <v>403001</v>
-      </c>
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
@@ -786,9 +783,6 @@
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
-      <c r="U3">
-        <v>404016</v>
-      </c>
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>

--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>serv_salud</t>
   </si>
@@ -155,13 +155,28 @@
     <t>11/13/1946</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
     <t>Scanner</t>
   </si>
   <si>
     <t>2024-04-11</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>EPILEPSIA</t>
+  </si>
+  <si>
+    <t>MELIPILLA</t>
+  </si>
+  <si>
+    <t>04</t>
   </si>
   <si>
     <t>jose perotti 862 los jazmines</t>
@@ -671,7 +686,9 @@
       </c>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2"/>
+      <c r="A2">
+        <v>10</v>
+      </c>
       <c r="B2">
         <v>5772203</v>
       </c>
@@ -693,36 +710,58 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
       <c r="K2">
         <v>403001</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2"/>
-      <c r="Q2"/>
+        <v>49</v>
+      </c>
+      <c r="P2">
+        <v>110150</v>
+      </c>
+      <c r="Q2">
+        <v>110150</v>
+      </c>
       <c r="R2"/>
       <c r="S2"/>
-      <c r="T2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
+      <c r="T2">
+        <v>110150</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2">
+        <v>13</v>
+      </c>
+      <c r="X2">
+        <v>13501</v>
+      </c>
       <c r="Y2"/>
       <c r="Z2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
+        <v>51</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>53</v>
+      </c>
       <c r="AD2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AE2"/>
       <c r="AF2"/>
@@ -730,7 +769,7 @@
       <c r="AH2"/>
       <c r="AI2"/>
       <c r="AJ2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK2"/>
       <c r="AL2"/>
@@ -743,7 +782,9 @@
       <c r="AQ2"/>
     </row>
     <row r="3" spans="1:43">
-      <c r="A3"/>
+      <c r="A3">
+        <v>10</v>
+      </c>
       <c r="B3">
         <v>9588940</v>
       </c>
@@ -751,50 +792,72 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
       <c r="K3">
         <v>404016</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3"/>
-      <c r="Q3"/>
+        <v>49</v>
+      </c>
+      <c r="P3">
+        <v>110150</v>
+      </c>
+      <c r="Q3">
+        <v>110150</v>
+      </c>
       <c r="R3"/>
       <c r="S3"/>
-      <c r="T3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
+      <c r="T3">
+        <v>110150</v>
+      </c>
+      <c r="V3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3">
+        <v>13</v>
+      </c>
+      <c r="X3">
+        <v>13501</v>
+      </c>
       <c r="Y3"/>
       <c r="Z3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
+        <v>61</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>53</v>
+      </c>
       <c r="AD3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AE3"/>
       <c r="AF3"/>
@@ -802,7 +865,7 @@
       <c r="AH3"/>
       <c r="AI3"/>
       <c r="AJ3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="AK3"/>
       <c r="AL3"/>

--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -15,132 +15,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
-  <si>
-    <t>serv_salud</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>dv</t>
-  </si>
-  <si>
-    <t>nombres</t>
-  </si>
-  <si>
-    <t>apellido_paterno</t>
-  </si>
-  <si>
-    <t>apellido_materno</t>
-  </si>
-  <si>
-    <t>fecha_nacimiento</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>previcion</t>
-  </si>
-  <si>
-    <t>tipo_prest</t>
-  </si>
-  <si>
-    <t>codigo_fonasa</t>
-  </si>
-  <si>
-    <t>plano</t>
-  </si>
-  <si>
-    <t>extremidad</t>
-  </si>
-  <si>
-    <t>tipo_examen</t>
-  </si>
-  <si>
-    <t>fecha_solicitud</t>
-  </si>
-  <si>
-    <t>estab_orig</t>
-  </si>
-  <si>
-    <t>estab_dest</t>
-  </si>
-  <si>
-    <t>fecha_egreso</t>
-  </si>
-  <si>
-    <t>motivo_egreso</t>
-  </si>
-  <si>
-    <t>e_otor_at</t>
-  </si>
-  <si>
-    <t>prais</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>comuna</t>
-  </si>
-  <si>
-    <t>diagnostico</t>
-  </si>
-  <si>
-    <t>diagnostico_libre</t>
-  </si>
-  <si>
-    <t>ciudad</t>
-  </si>
-  <si>
-    <t>ruralidad</t>
-  </si>
-  <si>
-    <t>via_direccion</t>
-  </si>
-  <si>
-    <t>direccion</t>
-  </si>
-  <si>
-    <t>num_direccion</t>
-  </si>
-  <si>
-    <t>resto_direccion</t>
-  </si>
-  <si>
-    <t>fono_fijo</t>
-  </si>
-  <si>
-    <t>fono_movil</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>fecha</t>
-  </si>
-  <si>
-    <t>run_prof_sol</t>
-  </si>
-  <si>
-    <t>cv_prof_sol</t>
-  </si>
-  <si>
-    <t>run_prof_resol</t>
-  </si>
-  <si>
-    <t>cv_prof_resol</t>
-  </si>
-  <si>
-    <t>id_detalle_de_solicitud</t>
-  </si>
-  <si>
-    <t>resultado</t>
-  </si>
-  <si>
-    <t>sigte_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+  <si>
+    <t>SERV_SALUD</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>NOMBRES</t>
+  </si>
+  <si>
+    <t>APELLIDO_PATERNO</t>
+  </si>
+  <si>
+    <t>APELLIDO_MATERNO</t>
+  </si>
+  <si>
+    <t>FECHA_NACIMIENTO</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>PREVICION</t>
+  </si>
+  <si>
+    <t>TIPO_PREST</t>
+  </si>
+  <si>
+    <t>CODIGO_FONASA</t>
+  </si>
+  <si>
+    <t>PLANO</t>
+  </si>
+  <si>
+    <t>EXTREMIDAD</t>
+  </si>
+  <si>
+    <t>TIPO_EXAMEN</t>
+  </si>
+  <si>
+    <t>FECHA_SOLICITUD</t>
+  </si>
+  <si>
+    <t>ESTAB_ORIG</t>
+  </si>
+  <si>
+    <t>ESTAB_DEST</t>
+  </si>
+  <si>
+    <t>FECHA_EGRESO</t>
+  </si>
+  <si>
+    <t>MOTIVO_EGRESO</t>
+  </si>
+  <si>
+    <t>E_OTOR_AT</t>
+  </si>
+  <si>
+    <t>PRAIS</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>COMUNA</t>
+  </si>
+  <si>
+    <t>DIAGNOSTICO</t>
+  </si>
+  <si>
+    <t>DIAGNOSTICO_LIBRE</t>
+  </si>
+  <si>
+    <t>CIUDAD</t>
+  </si>
+  <si>
+    <t>RURALIDAD</t>
+  </si>
+  <si>
+    <t>VIA_DIRECCION</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>NUM_DIRECCION</t>
+  </si>
+  <si>
+    <t>RESTO_DIRECCION</t>
+  </si>
+  <si>
+    <t>FONO_FIJO</t>
+  </si>
+  <si>
+    <t>FONO_MOVIL</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>RUN_PROF_SOL</t>
+  </si>
+  <si>
+    <t>CV_PROF_SOL</t>
+  </si>
+  <si>
+    <t>RUN_PROF_RESOL</t>
+  </si>
+  <si>
+    <t>CV_PROF_RESOL</t>
+  </si>
+  <si>
+    <t>ID_DETALLE_DE_SOLICITUD</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>SIGTE_ID</t>
   </si>
   <si>
     <t>carlos</t>
@@ -179,12 +179,6 @@
     <t>04</t>
   </si>
   <si>
-    <t>jose perotti 862 los jazmines</t>
-  </si>
-  <si>
-    <t>2024-05-23 10:00:00</t>
-  </si>
-  <si>
     <t>GLADYS</t>
   </si>
   <si>
@@ -201,12 +195,6 @@
   </si>
   <si>
     <t>PIE DER</t>
-  </si>
-  <si>
-    <t>Agua Santa . Parcela # 75 . ..B-1. Culipran</t>
-  </si>
-  <si>
-    <t>2024-05-23 15:00:00</t>
   </si>
 </sst>
 </file>
@@ -716,9 +704,7 @@
       <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="K2">
-        <v>403001</v>
-      </c>
+      <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" t="s">
@@ -760,24 +746,18 @@
       <c r="AC2" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" t="s">
-        <v>54</v>
-      </c>
+      <c r="AD2"/>
       <c r="AE2"/>
       <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
       <c r="AI2"/>
-      <c r="AJ2" t="s">
-        <v>55</v>
-      </c>
+      <c r="AJ2"/>
       <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2"/>
       <c r="AN2"/>
-      <c r="AO2">
-        <v>28978</v>
-      </c>
+      <c r="AO2"/>
       <c r="AP2"/>
       <c r="AQ2"/>
     </row>
@@ -792,16 +772,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -812,13 +792,11 @@
       <c r="J3" t="s">
         <v>47</v>
       </c>
-      <c r="K3">
-        <v>404016</v>
-      </c>
+      <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
         <v>49</v>
@@ -845,7 +823,7 @@
       </c>
       <c r="Y3"/>
       <c r="Z3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AA3" t="s">
         <v>52</v>
@@ -856,24 +834,18 @@
       <c r="AC3" t="s">
         <v>53</v>
       </c>
-      <c r="AD3" t="s">
-        <v>62</v>
-      </c>
+      <c r="AD3"/>
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
-      <c r="AJ3" t="s">
-        <v>63</v>
-      </c>
+      <c r="AJ3"/>
       <c r="AK3"/>
       <c r="AL3"/>
       <c r="AM3"/>
       <c r="AN3"/>
-      <c r="AO3">
-        <v>30087</v>
-      </c>
+      <c r="AO3"/>
       <c r="AP3"/>
       <c r="AQ3"/>
     </row>

--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>SERV_SALUD</t>
   </si>
@@ -47,7 +47,7 @@
     <t>TIPO_PREST</t>
   </si>
   <si>
-    <t>CODIGO_FONASA</t>
+    <t>PRESTA_MIN</t>
   </si>
   <si>
     <t>PLANO</t>
@@ -56,10 +56,10 @@
     <t>EXTREMIDAD</t>
   </si>
   <si>
-    <t>TIPO_EXAMEN</t>
-  </si>
-  <si>
-    <t>FECHA_SOLICITUD</t>
+    <t>PRESTA_EST</t>
+  </si>
+  <si>
+    <t>F_ENTRADA</t>
   </si>
   <si>
     <t>ESTAB_ORIG</t>
@@ -68,15 +68,18 @@
     <t>ESTAB_DEST</t>
   </si>
   <si>
-    <t>FECHA_EGRESO</t>
-  </si>
-  <si>
-    <t>MOTIVO_EGRESO</t>
+    <t>F_SALIDA</t>
+  </si>
+  <si>
+    <t>C_SALIDA</t>
   </si>
   <si>
     <t>E_OTOR_AT</t>
   </si>
   <si>
+    <t>PRESTA_MIN_SALIDA</t>
+  </si>
+  <si>
     <t>PRAIS</t>
   </si>
   <si>
@@ -119,7 +122,7 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>FECHA</t>
+    <t>F_CITACION</t>
   </si>
   <si>
     <t>RUN_PROF_SOL</t>
@@ -179,6 +182,12 @@
     <t>04</t>
   </si>
   <si>
+    <t>jose perotti 862 los jazmines</t>
+  </si>
+  <si>
+    <t>2024-05-23 10:00:00</t>
+  </si>
+  <si>
     <t>GLADYS</t>
   </si>
   <si>
@@ -195,6 +204,12 @@
   </si>
   <si>
     <t>PIE DER</t>
+  </si>
+  <si>
+    <t>Agua Santa . Parcela # 75 . ..B-1. Culipran</t>
+  </si>
+  <si>
+    <t>2024-05-23 15:00:00</t>
   </si>
 </sst>
 </file>
@@ -604,73 +619,73 @@
         <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:43">
@@ -684,34 +699,36 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2"/>
+        <v>48</v>
+      </c>
+      <c r="K2">
+        <v>403001</v>
+      </c>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P2">
         <v>110150</v>
@@ -724,8 +741,11 @@
       <c r="T2">
         <v>110150</v>
       </c>
+      <c r="U2">
+        <v>403001</v>
+      </c>
       <c r="V2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W2">
         <v>13</v>
@@ -735,24 +755,28 @@
       </c>
       <c r="Y2"/>
       <c r="Z2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2"/>
+        <v>54</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>55</v>
+      </c>
       <c r="AE2"/>
       <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
       <c r="AI2"/>
-      <c r="AJ2"/>
+      <c r="AJ2" t="s">
+        <v>56</v>
+      </c>
       <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2"/>
@@ -772,34 +796,36 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3"/>
+        <v>48</v>
+      </c>
+      <c r="K3">
+        <v>404016</v>
+      </c>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P3">
         <v>110150</v>
@@ -812,8 +838,11 @@
       <c r="T3">
         <v>110150</v>
       </c>
+      <c r="U3">
+        <v>404016</v>
+      </c>
       <c r="V3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W3">
         <v>13</v>
@@ -823,24 +852,28 @@
       </c>
       <c r="Y3"/>
       <c r="Z3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AA3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD3"/>
+        <v>54</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>63</v>
+      </c>
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
-      <c r="AJ3"/>
+      <c r="AJ3" t="s">
+        <v>64</v>
+      </c>
       <c r="AK3"/>
       <c r="AL3"/>
       <c r="AM3"/>

--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -29,13 +29,13 @@
     <t>NOMBRES</t>
   </si>
   <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>FECHA_NACIMIENTO</t>
+    <t>PRIMER_APELLIDO</t>
+  </si>
+  <si>
+    <t>SEGUNDO_APELLIDO</t>
+  </si>
+  <si>
+    <t>FECHA_NAC</t>
   </si>
   <si>
     <t>SEXO</t>
@@ -89,10 +89,10 @@
     <t>COMUNA</t>
   </si>
   <si>
-    <t>DIAGNOSTICO</t>
-  </si>
-  <si>
-    <t>DIAGNOSTICO_LIBRE</t>
+    <t>SOSPECHA_DIAG</t>
+  </si>
+  <si>
+    <t>CONFIR_DIAG</t>
   </si>
   <si>
     <t>CIUDAD</t>
@@ -104,7 +104,7 @@
     <t>VIA_DIRECCION</t>
   </si>
   <si>
-    <t>DIRECCION</t>
+    <t>NOM_CALLE</t>
   </si>
   <si>
     <t>NUM_DIRECCION</t>

--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -98,7 +98,7 @@
     <t>CIUDAD</t>
   </si>
   <si>
-    <t>RURALIDAD</t>
+    <t>COND_RURALIDAD</t>
   </si>
   <si>
     <t>VIA_DIRECCION</t>
@@ -128,16 +128,16 @@
     <t>RUN_PROF_SOL</t>
   </si>
   <si>
-    <t>CV_PROF_SOL</t>
+    <t>DV_PROF_SOL</t>
   </si>
   <si>
     <t>RUN_PROF_RESOL</t>
   </si>
   <si>
-    <t>CV_PROF_RESOL</t>
-  </si>
-  <si>
-    <t>ID_DETALLE_DE_SOLICITUD</t>
+    <t>DV_PROF_RESOL</t>
+  </si>
+  <si>
+    <t>ID_LOCAL</t>
   </si>
   <si>
     <t>RESULTADO</t>
@@ -781,7 +781,9 @@
       <c r="AL2"/>
       <c r="AM2"/>
       <c r="AN2"/>
-      <c r="AO2"/>
+      <c r="AO2">
+        <v>28978</v>
+      </c>
       <c r="AP2"/>
       <c r="AQ2"/>
     </row>
@@ -878,7 +880,9 @@
       <c r="AL3"/>
       <c r="AM3"/>
       <c r="AN3"/>
-      <c r="AO3"/>
+      <c r="AO3">
+        <v>30087</v>
+      </c>
       <c r="AP3"/>
       <c r="AQ3"/>
     </row>
